--- a/WeeklyMasterList.xlsx
+++ b/WeeklyMasterList.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iboti\WeeklyOp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iboti\WeeklyOp\HotTubRouteOptimize\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6D9FC0-8938-4AC5-BA6E-42E284E3DBFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C03DBA-B7E9-4103-8145-7298FB6DA179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="175" yWindow="195" windowWidth="11110" windowHeight="7290" xr2:uid="{17DB0C37-DFF4-4C70-9C9A-64450E8C0F58}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{17DB0C37-DFF4-4C70-9C9A-64450E8C0F58}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="WeeklyAll" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="232">
   <si>
     <t>ADDRESS</t>
   </si>
@@ -49,21 +49,9 @@
     <t>445 PENN COVE ROAD</t>
   </si>
   <si>
-    <t>2407 BOYSCOUT ROAD</t>
-  </si>
-  <si>
     <t>137 EAGLE SCOUT LANE</t>
   </si>
   <si>
-    <t>753 HOLY CROSS DRIVE</t>
-  </si>
-  <si>
-    <t>820 HOLY CROSS DRIVE</t>
-  </si>
-  <si>
-    <t>920 HOLY CROSS DRIVE</t>
-  </si>
-  <si>
     <t xml:space="preserve">47 HOLY CROSS CIRCLE </t>
   </si>
   <si>
@@ -73,9 +61,6 @@
     <t>1010 HOLY CROSS CIRCLE</t>
   </si>
   <si>
-    <t>1048 HOLY CROSS DRIVE</t>
-  </si>
-  <si>
     <t>764 NORTH BLAKESLEE</t>
   </si>
   <si>
@@ -139,15 +124,6 @@
     <t xml:space="preserve">348 YACHT CLUB ROAD </t>
   </si>
   <si>
-    <t>119 CEDARBROOK DRIVE</t>
-  </si>
-  <si>
-    <t>594 HICKORY RIDGE LANE</t>
-  </si>
-  <si>
-    <t>614 HICKORY RIDGE LANE</t>
-  </si>
-  <si>
     <t>511 HAZELHURST LANE</t>
   </si>
   <si>
@@ -157,12 +133,6 @@
     <t>62 KUSKIE LANE</t>
   </si>
   <si>
-    <t>475 MAYBURY LANE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">540 TANGLEWOOD DR. </t>
-  </si>
-  <si>
     <t>319 RIVERBEND DR.</t>
   </si>
   <si>
@@ -196,33 +166,15 @@
     <t xml:space="preserve">336 PARADISE HEIGHTS </t>
   </si>
   <si>
-    <t>94 PARADISE GARDEN RD.</t>
-  </si>
-  <si>
     <t>19906 GARRETT HWY</t>
   </si>
   <si>
     <t xml:space="preserve">19906 GARRETT HWY </t>
   </si>
   <si>
-    <t>338 MT. VIEW DR.</t>
-  </si>
-  <si>
-    <t>558 MT. VIEW DR.</t>
-  </si>
-  <si>
-    <t>1755 MT. VIEW DR.</t>
-  </si>
-  <si>
     <t>117 JEFFREY LANE</t>
   </si>
   <si>
-    <t>15 PINNACLE LANE</t>
-  </si>
-  <si>
-    <t>560 PINNACLE LANE</t>
-  </si>
-  <si>
     <t>55 DRIFTWOOD DR.</t>
   </si>
   <si>
@@ -232,27 +184,12 @@
     <t xml:space="preserve">26 GLEN COVE </t>
   </si>
   <si>
-    <t>956 BECKMANS PENNINSULA</t>
-  </si>
-  <si>
-    <t>915 BECKMANS PENNINSULA</t>
-  </si>
-  <si>
-    <t>59 GLEN RISE RD</t>
-  </si>
-  <si>
     <t>354 WHITE OAK DR</t>
   </si>
   <si>
     <t>123 GLENWOOD CIRCLE</t>
   </si>
   <si>
-    <t>154 STILWATER</t>
-  </si>
-  <si>
-    <t>50 STILWATER</t>
-  </si>
-  <si>
     <t>2578 GLENDALE ROAD</t>
   </si>
   <si>
@@ -271,12 +208,6 @@
     <t>316 MOONRISE DR.</t>
   </si>
   <si>
-    <t>539 HARVEYS PENNINSULA RD</t>
-  </si>
-  <si>
-    <t>653 HARVEYS PENINSULA RD.</t>
-  </si>
-  <si>
     <t>327 NORTH SHORE</t>
   </si>
   <si>
@@ -295,21 +226,9 @@
     <t>68 ROUND BEACH</t>
   </si>
   <si>
-    <t>391 HEINZ DR.</t>
-  </si>
-  <si>
-    <t>71 N GLADE HILLS DR.</t>
-  </si>
-  <si>
     <t>34 HIDDEN VALLEY LANE</t>
   </si>
   <si>
-    <t>336 WOODLAND WAY SKY VALLEY</t>
-  </si>
-  <si>
-    <t>115 WOODLAND WAY SKY VALLEY</t>
-  </si>
-  <si>
     <t>41 RIDGE ROAD</t>
   </si>
   <si>
@@ -334,21 +253,6 @@
     <t>201 SAWMILL HOLLOW RD</t>
   </si>
   <si>
-    <t>218 SMITH POINTE</t>
-  </si>
-  <si>
-    <t>43 ACORN LANE</t>
-  </si>
-  <si>
-    <t>55 ACORN LANE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101 ACORN LANE </t>
-  </si>
-  <si>
-    <t>178 SMITH POINTE RD</t>
-  </si>
-  <si>
     <t>90 RED OAK WAY</t>
   </si>
   <si>
@@ -358,9 +262,6 @@
     <t>294 NORTH SHORELINE DRIVE</t>
   </si>
   <si>
-    <t xml:space="preserve">245 SOUTH SHORE POINT </t>
-  </si>
-  <si>
     <t>625 SHORELINE DR</t>
   </si>
   <si>
@@ -376,12 +277,6 @@
     <t xml:space="preserve">543 SHORELINE DR. </t>
   </si>
   <si>
-    <t>1326 THOUSAND ACRES DR.</t>
-  </si>
-  <si>
-    <t>1340 THOUSAND ACRES DR.</t>
-  </si>
-  <si>
     <t>543 CROWS POINT RD</t>
   </si>
   <si>
@@ -409,12 +304,6 @@
     <t>108 EDGEWATER DRIVE</t>
   </si>
   <si>
-    <t>4 TREE TOP WAY</t>
-  </si>
-  <si>
-    <t>321 TREE TOP WAY</t>
-  </si>
-  <si>
     <t>185 LEHMAN LANE</t>
   </si>
   <si>
@@ -445,9 +334,6 @@
     <t>551 LAKE SHORE DRIVE</t>
   </si>
   <si>
-    <t>441 LAKESHORE DRIVE</t>
-  </si>
-  <si>
     <t>105 CHERRY HEIGHTS LANE</t>
   </si>
   <si>
@@ -478,9 +364,6 @@
     <t>153 LAUREL LANE</t>
   </si>
   <si>
-    <t>189 TOOTHPICK ROAD</t>
-  </si>
-  <si>
     <t>32 ROBERTS DR.</t>
   </si>
   <si>
@@ -496,15 +379,9 @@
     <t xml:space="preserve">#5 CEDAR SHORES </t>
   </si>
   <si>
-    <t xml:space="preserve">SUNDOWN CHASE 2 A </t>
-  </si>
-  <si>
     <t xml:space="preserve">729 DEEP CREEK DRIVE  </t>
   </si>
   <si>
-    <t>39 LAKE VIEW COURT</t>
-  </si>
-  <si>
     <t>39 WINDING WAY</t>
   </si>
   <si>
@@ -514,15 +391,6 @@
     <t xml:space="preserve">117 RED BRUSH </t>
   </si>
   <si>
-    <t>82 APSEN COURT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32 DEEP CREEK VILLAGE UNIT 32 </t>
-  </si>
-  <si>
-    <t>257 MARSH HILL ROAD UNIT 39</t>
-  </si>
-  <si>
     <t xml:space="preserve">549 MARSH HILL ROAD </t>
   </si>
   <si>
@@ -550,9 +418,6 @@
     <t>2777 MARSH HILL ROAD</t>
   </si>
   <si>
-    <t>50 BRIGHTS PASSAGE</t>
-  </si>
-  <si>
     <t>22181 GARRETT HWY</t>
   </si>
   <si>
@@ -568,36 +433,21 @@
     <t>278 WAGNER ROAD</t>
   </si>
   <si>
-    <t>165 MOORS HOLLOW RD</t>
-  </si>
-  <si>
     <t>62 BRIGHT PASSAGE</t>
   </si>
   <si>
-    <t>758 A OVERLOOK VILLAS</t>
-  </si>
-  <si>
     <t>209 HIGHLINE DR.</t>
   </si>
   <si>
     <t xml:space="preserve">268 HIGHLINE DR. </t>
   </si>
   <si>
-    <t>53 SNOW SHOE CT.</t>
-  </si>
-  <si>
     <t>184 BOULDER RIDGE</t>
   </si>
   <si>
     <t>142 LOWER CAMP RD</t>
   </si>
   <si>
-    <t>55 LITTLE DIPPER LANE</t>
-  </si>
-  <si>
-    <t>59 LITTLE DIPPER LANE</t>
-  </si>
-  <si>
     <t>2921 SHINGLE CAMP RD.</t>
   </si>
   <si>
@@ -625,36 +475,24 @@
     <t xml:space="preserve">11 BIG DIPPER </t>
   </si>
   <si>
-    <t xml:space="preserve">34 SLIPPERY SLOPE </t>
-  </si>
-  <si>
     <t>40 BIG DIPPER COURT</t>
   </si>
   <si>
     <t>45 BIG DIPPER COURT</t>
   </si>
   <si>
-    <t>22 NORTHCAMP</t>
-  </si>
-  <si>
     <t>198 NORTH CAMP</t>
   </si>
   <si>
     <t>148 ROCKY CAMP RD</t>
   </si>
   <si>
-    <t>164 HIGH RD CREST</t>
-  </si>
-  <si>
     <t>111 WESTWARD WAY</t>
   </si>
   <si>
     <t>612 MOUNTAIN TOP ROAD</t>
   </si>
   <si>
-    <t xml:space="preserve">50 MT. OVERLOOK COURT </t>
-  </si>
-  <si>
     <t>300 DEEP CREEK HIGHLANDS</t>
   </si>
   <si>
@@ -664,15 +502,6 @@
     <t xml:space="preserve">659 HIGHLAND DR. </t>
   </si>
   <si>
-    <t xml:space="preserve">80 WISP HARRISON </t>
-  </si>
-  <si>
-    <t>85 BRENNEMAN LANE</t>
-  </si>
-  <si>
-    <t>5 BRENNEMAN LANE</t>
-  </si>
-  <si>
     <t>118 SHINGLE CAMP TERRACE</t>
   </si>
   <si>
@@ -688,9 +517,6 @@
     <t>1492 STOCKSLAGER RD</t>
   </si>
   <si>
-    <t>167 PENALACRE ROAD</t>
-  </si>
-  <si>
     <t>2742 STOCKSLAGER RD</t>
   </si>
   <si>
@@ -721,15 +547,6 @@
     <t>88 LAKE FOREST DRIVE</t>
   </si>
   <si>
-    <t>30 LAKE FORREST DRIVE</t>
-  </si>
-  <si>
-    <t>346 LAKE FORREST DRIVE</t>
-  </si>
-  <si>
-    <t>246 MCCOMMAS BEACH</t>
-  </si>
-  <si>
     <t>2431 MAYHEW INN RD</t>
   </si>
   <si>
@@ -740,23 +557,188 @@
   </si>
   <si>
     <t>Garrett County, Maryland</t>
+  </si>
+  <si>
+    <t>753 HOLY CROSS Road</t>
+  </si>
+  <si>
+    <t>820 HOLY CROSS Road</t>
+  </si>
+  <si>
+    <t>920 HOLY CROSS Road</t>
+  </si>
+  <si>
+    <t>1048 HOLY CROSS Road</t>
+  </si>
+  <si>
+    <t>594 HICKORY RIDGE road</t>
+  </si>
+  <si>
+    <t>614 HICKORY RIDGE road</t>
+  </si>
+  <si>
+    <t>475 MAYBerRY LANE</t>
+  </si>
+  <si>
+    <t>119 CEDARBROOK lane</t>
+  </si>
+  <si>
+    <t>540 TANGLEWOOD road</t>
+  </si>
+  <si>
+    <t>94 PARADISE GARDENs RD.</t>
+  </si>
+  <si>
+    <t>338 MountianVIEW DR.</t>
+  </si>
+  <si>
+    <t>15 PINNACLE dr</t>
+  </si>
+  <si>
+    <t>560 PINNACLE dr</t>
+  </si>
+  <si>
+    <t>956  Beckmans Peninsula Road</t>
+  </si>
+  <si>
+    <t>915  Beckmans Peninsula Road</t>
+  </si>
+  <si>
+    <t>59 GLENRISE RD</t>
+  </si>
+  <si>
+    <t>154 STILLWATER</t>
+  </si>
+  <si>
+    <t>50 STILLWATER</t>
+  </si>
+  <si>
+    <t>653 HARVEY PENINSULA RD.</t>
+  </si>
+  <si>
+    <t>391 Hines DR.</t>
+  </si>
+  <si>
+    <t>71  Northglade Hill Drive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">336 WOODLAND WAY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">115 WOODLAND WAY </t>
+  </si>
+  <si>
+    <t>218 SMITH POINT</t>
+  </si>
+  <si>
+    <t>178 SMITH POINT rD</t>
+  </si>
+  <si>
+    <t>43 red oak way</t>
+  </si>
+  <si>
+    <t>55 red oak way</t>
+  </si>
+  <si>
+    <t>245 SOUTH SHORE POINT rd</t>
+  </si>
+  <si>
+    <t>1326 THOUSAND ACRES rd.</t>
+  </si>
+  <si>
+    <t>1340 THOUSAND ACRES rd</t>
+  </si>
+  <si>
+    <t>4 TREETOP WAY</t>
+  </si>
+  <si>
+    <t>321 TREETOP WAY</t>
+  </si>
+  <si>
+    <t>441 LAKE SHORE DRIVE</t>
+  </si>
+  <si>
+    <t>189 TOOTH PICK ROAD</t>
+  </si>
+  <si>
+    <t>99 Cedar shores drive</t>
+  </si>
+  <si>
+    <t>39 LAKeVIEW COURT</t>
+  </si>
+  <si>
+    <t>82 AspEN COURT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">257 MARSH HILL ROAD </t>
+  </si>
+  <si>
+    <t>50 BRIGHT PASSAGE</t>
+  </si>
+  <si>
+    <t>165 MOORS HOLLOW dr</t>
+  </si>
+  <si>
+    <t>758 Wisp Mountain Rd</t>
+  </si>
+  <si>
+    <t>53 SNOWSHOE CT.</t>
+  </si>
+  <si>
+    <t>55 LITTLE DIPPER ct</t>
+  </si>
+  <si>
+    <t>59 LITTLE DIPPER ct</t>
+  </si>
+  <si>
+    <t>34 little dipper</t>
+  </si>
+  <si>
+    <t>22 NORTH CAMP</t>
+  </si>
+  <si>
+    <t>fork run yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 Mountain OVERLOOK COURT </t>
+  </si>
+  <si>
+    <t>99, Shingle Camp Terrace</t>
+  </si>
+  <si>
+    <t>80 WISP Mountain Rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 246 McComas Beach Terrace</t>
+  </si>
+  <si>
+    <t>30 LAKE FOREST DRIVE</t>
+  </si>
+  <si>
+    <t>2407 BOY SCOUT ROAD</t>
+  </si>
+  <si>
+    <t>558 MountainVIEW DR.</t>
+  </si>
+  <si>
+    <t>101 red oak way</t>
+  </si>
+  <si>
+    <t>1755 MountainVIEW DR.</t>
+  </si>
+  <si>
+    <t>539 HARVEY PENINSULA RD</t>
+  </si>
+  <si>
+    <t>167 Penelacre Ln</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -789,26 +771,8 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF4F81BD"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -838,27 +802,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -902,51 +851,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1263,10 +1203,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F45F2F-6EB4-4E87-BBD0-8873359BDEE3}">
-  <dimension ref="A1:F237"/>
+  <dimension ref="A1:F226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="F173" sqref="F173:F237"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="I209" sqref="I209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1277,27 +1217,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
-        <v>233</v>
+        <v>172</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1306,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1318,7 +1258,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1327,20 +1267,20 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <f>E2+1</f>
         <v>2</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F66" si="0">_xlfn.CONCAT(C3:E3)</f>
+        <f t="shared" ref="F3:F63" si="0">_xlfn.CONCAT(C3:E3)</f>
         <v>1AB2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1349,7 +1289,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E21" si="1">E3+1</f>
@@ -1362,16 +1302,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>226</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
@@ -1384,16 +1324,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
@@ -1406,16 +1346,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>174</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
@@ -1428,16 +1368,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>175</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
@@ -1450,16 +1390,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>176</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
@@ -1472,16 +1412,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
@@ -1494,16 +1434,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
@@ -1516,16 +1456,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
@@ -1538,16 +1478,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
@@ -1560,16 +1500,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
@@ -1582,16 +1522,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
@@ -1604,16 +1544,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
@@ -1626,16 +1566,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
@@ -1648,16 +1588,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
@@ -1670,16 +1610,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
@@ -1692,16 +1632,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
@@ -1714,16 +1654,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
@@ -1736,4648 +1676,4506 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B22" t="s">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2AB1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <f>1+E22</f>
+        <v>2</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
-        <v>2AB1</v>
+        <v>2AB2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E24">
-        <f>1+E23</f>
-        <v>2</v>
+        <f t="shared" ref="E24:E34" si="2">1+E23</f>
+        <v>3</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
-        <v>2AB2</v>
+        <v>2AB3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E25">
-        <f t="shared" ref="E25:E35" si="2">1+E24</f>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
-        <v>2AB3</v>
+        <v>2B4</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
-        <v>2B4</v>
+        <v>2AB5</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
-        <v>2AB5</v>
+        <v>2AB6</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>181</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
-        <v>2AB6</v>
+        <v>2B7</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E29">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
-        <v>2B7</v>
+        <v>2AB8</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>179</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E30">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v>2AB8</v>
+        <v>2AB9</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E31">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
-        <v>2AB9</v>
+        <v>2AB10</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
-        <v>2AB10</v>
+        <v>2AB11</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
-        <v>2AB11</v>
+        <v>2AB12</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
-        <v>2AB12</v>
+        <v>2AB13</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>182</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E35">
-        <f t="shared" si="2"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v>2AB13</v>
+        <v>3AB1</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B36" t="s">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36">
+        <f>1+E35</f>
+        <v>2</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>3AB2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C37">
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <f t="shared" ref="E37:E53" si="3">1+E36</f>
+        <v>3</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
-        <v>3AB1</v>
+        <v>3B3</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C38">
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E38">
-        <f>1+E37</f>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
-        <v>3AB2</v>
+        <v>3AB4</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E39">
-        <f t="shared" ref="E39:E55" si="3">1+E38</f>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
-        <v>3B3</v>
+        <v>3AB5</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C40">
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E40">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
-        <v>3AB4</v>
+        <v>3AB6</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C41">
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E41">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
-        <v>3AB5</v>
+        <v>3B7</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C42">
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E42">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
-        <v>3AB6</v>
+        <v>3AB8</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C43">
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E43">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
-        <v>3B7</v>
+        <v>3AB9</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C44">
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E44">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
-        <v>3AB8</v>
+        <v>3AB10</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C45">
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E45">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
-        <v>3AB9</v>
+        <v>3AB11</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C46">
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E46">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
-        <v>3AB10</v>
+        <v>3AB12</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>183</v>
       </c>
       <c r="C47">
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E47">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
-        <v>3AB11</v>
+        <v>3AB13</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C48">
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E48">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
-        <v>3AB12</v>
+        <v>3AB14</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C49">
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E49">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
-        <v>3AB13</v>
+        <v>3AB15</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>184</v>
       </c>
       <c r="C50">
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E50">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
-        <v>3AB14</v>
+        <v>3AB16</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>227</v>
       </c>
       <c r="C51">
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E51">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
-        <v>3AB15</v>
+        <v>3AB17</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>229</v>
       </c>
       <c r="C52">
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E52">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="0"/>
-        <v>3AB16</v>
+        <v>3AB18</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C53">
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E53">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="0"/>
-        <v>3AB17</v>
+        <v>3AB19</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>185</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E54">
-        <f t="shared" si="3"/>
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="0"/>
-        <v>3AB18</v>
+        <v>4AB1</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>186</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E55">
-        <f t="shared" si="3"/>
-        <v>19</v>
+        <f>E54+1</f>
+        <v>2</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="0"/>
-        <v>3AB19</v>
+        <v>4AB2</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B56" t="s">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ref="E56:E81" si="4">E55+1</f>
+        <v>3</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>4AB3</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C57">
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" si="0"/>
-        <v>4AB1</v>
+        <v>4AB4</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C58">
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E58">
-        <f>E57+1</f>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" si="0"/>
-        <v>4AB2</v>
+        <v>4B5</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>187</v>
       </c>
       <c r="C59">
         <v>4</v>
       </c>
       <c r="D59" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E59">
-        <f t="shared" ref="E59:E84" si="4">E58+1</f>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="0"/>
-        <v>4AB3</v>
+        <v>4AB6</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="C60">
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E60">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F60" t="str">
         <f t="shared" si="0"/>
-        <v>4AB4</v>
+        <v>4AB7</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>189</v>
       </c>
       <c r="C61">
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E61">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="0"/>
-        <v>4B5</v>
+        <v>4AB8</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C62">
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E62">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" si="0"/>
-        <v>4AB6</v>
+        <v>4B9</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A63" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C63">
         <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E63">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F63" t="str">
         <f t="shared" si="0"/>
-        <v>4AB7</v>
+        <v>4B10</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>190</v>
       </c>
       <c r="C64">
         <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E64">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F64" t="str">
-        <f t="shared" si="0"/>
-        <v>4AB8</v>
+        <f t="shared" ref="F64:F125" si="5">_xlfn.CONCAT(C64:E64)</f>
+        <v>4AB11</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A65" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>191</v>
       </c>
       <c r="C65">
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E65">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F65" t="str">
-        <f t="shared" si="0"/>
-        <v>4B9</v>
+        <f t="shared" si="5"/>
+        <v>4AB12</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A66" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C66">
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E66">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F66" t="str">
-        <f t="shared" si="0"/>
-        <v>4B10</v>
+        <f t="shared" si="5"/>
+        <v>4AB13</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C67">
         <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E67">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" ref="F67:F130" si="5">_xlfn.CONCAT(C67:E67)</f>
-        <v>4AB11</v>
+        <f t="shared" si="5"/>
+        <v>4AB14</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A68" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C68">
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E68">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F68" t="str">
         <f t="shared" si="5"/>
-        <v>4AB12</v>
+        <v>4AB15</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C69">
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E69">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F69" t="str">
         <f t="shared" si="5"/>
-        <v>4AB13</v>
+        <v>4AB16</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C70">
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E70">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" si="5"/>
-        <v>4AB14</v>
+        <v>4AB17</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A71" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C71">
         <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E71">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F71" t="str">
         <f t="shared" si="5"/>
-        <v>4AB15</v>
+        <v>4AB18</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A72" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>230</v>
       </c>
       <c r="C72">
         <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E72">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" si="5"/>
-        <v>4AB16</v>
+        <v>4B19</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A73" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="C73">
         <v>4</v>
       </c>
       <c r="D73" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E73">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F73" t="str">
         <f t="shared" si="5"/>
-        <v>4AB17</v>
+        <v>4AB20</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A74" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C74">
         <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E74">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F74" t="str">
         <f t="shared" si="5"/>
-        <v>4AB18</v>
+        <v>4AB21</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A75" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C75">
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E75">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F75" t="str">
         <f t="shared" si="5"/>
-        <v>4B19</v>
+        <v>4B22</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A76" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C76">
         <v>4</v>
       </c>
       <c r="D76" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E76">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F76" t="str">
         <f t="shared" si="5"/>
-        <v>4AB20</v>
+        <v>4AB23</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A77" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C77">
         <v>4</v>
       </c>
       <c r="D77" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E77">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F77" t="str">
         <f t="shared" si="5"/>
-        <v>4AB21</v>
+        <v>4AB24</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A78" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C78">
         <v>4</v>
       </c>
       <c r="D78" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E78">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F78" t="str">
         <f t="shared" si="5"/>
-        <v>4B22</v>
+        <v>4AB25</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A79" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B79" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C79">
         <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E79">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F79" t="str">
         <f t="shared" si="5"/>
-        <v>4AB23</v>
+        <v>4AB26</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A80" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B80" t="s">
-        <v>83</v>
+        <v>193</v>
       </c>
       <c r="C80">
         <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E80">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F80" t="str">
         <f t="shared" si="5"/>
-        <v>4AB24</v>
+        <v>4AB27</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A81" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>194</v>
       </c>
       <c r="C81">
         <v>4</v>
       </c>
       <c r="D81" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E81">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F81" t="str">
         <f t="shared" si="5"/>
-        <v>4AB25</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.75">
+        <v>4B28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A82" t="s">
-        <v>234</v>
-      </c>
-      <c r="B82" t="s">
-        <v>85</v>
+        <v>173</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="C82">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E82">
-        <f t="shared" si="4"/>
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="F82" t="str">
         <f t="shared" si="5"/>
-        <v>4AB26</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.75">
+        <v>5AB1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A83" t="s">
-        <v>234</v>
-      </c>
-      <c r="B83" t="s">
-        <v>86</v>
+        <v>173</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E83">
-        <f t="shared" si="4"/>
-        <v>27</v>
+        <f>1+E82</f>
+        <v>2</v>
       </c>
       <c r="F83" t="str">
         <f t="shared" si="5"/>
-        <v>4AB27</v>
+        <v>5AB2</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A84" t="s">
-        <v>234</v>
-      </c>
-      <c r="B84" t="s">
-        <v>87</v>
+        <v>173</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="C84">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E84">
-        <f t="shared" si="4"/>
-        <v>28</v>
+        <f t="shared" ref="E84:E112" si="6">1+E83</f>
+        <v>3</v>
       </c>
       <c r="F84" t="str">
         <f t="shared" si="5"/>
-        <v>4B28</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+        <v>5AB3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A85" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="C85">
+        <v>5</v>
+      </c>
+      <c r="D85" t="s">
+        <v>20</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="F85" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>5AB4</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A86" t="s">
-        <v>234</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>88</v>
+        <v>173</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="C86">
         <v>5</v>
       </c>
       <c r="D86" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="F86" t="str">
         <f t="shared" si="5"/>
-        <v>5AB1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.9">
+        <v>5AB5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A87" t="s">
-        <v>234</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>89</v>
+        <v>173</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="C87">
         <v>5</v>
       </c>
       <c r="D87" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E87">
-        <f>1+E86</f>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>6</v>
       </c>
       <c r="F87" t="str">
         <f t="shared" si="5"/>
-        <v>5AB2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.9">
+        <v>5AB6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A88" t="s">
-        <v>234</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>90</v>
+        <v>173</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="C88">
         <v>5</v>
       </c>
       <c r="D88" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E88">
-        <f t="shared" ref="E88:E116" si="6">1+E87</f>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>7</v>
       </c>
       <c r="F88" t="str">
         <f t="shared" si="5"/>
-        <v>5AB3</v>
+        <v>5AB7</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A89" t="s">
-        <v>234</v>
-      </c>
-      <c r="B89" s="12" t="s">
-        <v>91</v>
+        <v>173</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="C89">
         <v>5</v>
       </c>
       <c r="D89" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E89">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F89" t="str">
         <f t="shared" si="5"/>
-        <v>5AB4</v>
+        <v>5AB8</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A90" t="s">
-        <v>234</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>92</v>
+        <v>173</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="C90">
         <v>5</v>
       </c>
       <c r="D90" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E90">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F90" t="str">
         <f t="shared" si="5"/>
-        <v>5AB5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.75">
+        <v>5AB9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A91" t="s">
-        <v>234</v>
-      </c>
-      <c r="B91" s="12" t="s">
-        <v>93</v>
+        <v>173</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="C91">
         <v>5</v>
       </c>
       <c r="D91" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E91">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F91" t="str">
         <f t="shared" si="5"/>
-        <v>5AB6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+        <v>5AB10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A92" t="s">
-        <v>234</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>94</v>
+        <v>173</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="C92">
         <v>5</v>
       </c>
       <c r="D92" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E92">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F92" t="str">
         <f t="shared" si="5"/>
-        <v>5AB7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.75">
+        <v>5AB11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A93" t="s">
-        <v>234</v>
-      </c>
-      <c r="B93" s="12" t="s">
-        <v>95</v>
+        <v>173</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="C93">
         <v>5</v>
       </c>
       <c r="D93" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E93">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F93" t="str">
         <f t="shared" si="5"/>
-        <v>5AB8</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+        <v>5AB12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A94" t="s">
-        <v>234</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>96</v>
+        <v>173</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="C94">
         <v>5</v>
       </c>
       <c r="D94" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E94">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F94" t="str">
         <f t="shared" si="5"/>
-        <v>5AB9</v>
+        <v>5AB13</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A95" t="s">
-        <v>234</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>97</v>
+        <v>173</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>200</v>
       </c>
       <c r="C95">
         <v>5</v>
       </c>
       <c r="D95" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E95">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F95" t="str">
         <f t="shared" si="5"/>
-        <v>5AB10</v>
+        <v>5AB14</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A96" t="s">
-        <v>234</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>98</v>
+        <v>173</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>228</v>
       </c>
       <c r="C96">
         <v>5</v>
       </c>
       <c r="D96" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E96">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F96" t="str">
         <f t="shared" si="5"/>
-        <v>5AB11</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+        <v>5B15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A97" t="s">
-        <v>234</v>
-      </c>
-      <c r="B97" s="10" t="s">
-        <v>99</v>
+        <v>173</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="C97">
         <v>5</v>
       </c>
       <c r="D97" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E97">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F97" t="str">
         <f t="shared" si="5"/>
-        <v>5AB12</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.75">
+        <v>5AB16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A98" t="s">
-        <v>234</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>100</v>
+        <v>173</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="C98">
         <v>5</v>
       </c>
       <c r="D98" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E98">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F98" t="str">
         <f t="shared" si="5"/>
-        <v>5AB13</v>
+        <v>5AB17</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A99" t="s">
-        <v>234</v>
-      </c>
-      <c r="B99" s="10" t="s">
-        <v>101</v>
+        <v>173</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="C99">
         <v>5</v>
       </c>
       <c r="D99" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E99">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F99" t="str">
         <f t="shared" si="5"/>
-        <v>5AB14</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.75">
+        <v>5AB18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A100" t="s">
-        <v>234</v>
-      </c>
-      <c r="B100" s="11" t="s">
-        <v>102</v>
+        <v>173</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="C100">
         <v>5</v>
       </c>
       <c r="D100" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E100">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F100" t="str">
         <f t="shared" si="5"/>
-        <v>5B15</v>
+        <v>5AB19</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A101" t="s">
-        <v>234</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>103</v>
+        <v>173</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>201</v>
       </c>
       <c r="C101">
         <v>5</v>
       </c>
       <c r="D101" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E101">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F101" t="str">
         <f t="shared" si="5"/>
-        <v>5AB16</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" thickBot="1" x14ac:dyDescent="0.9">
+        <v>5B20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A102" t="s">
-        <v>234</v>
-      </c>
-      <c r="B102" s="10" t="s">
-        <v>104</v>
+        <v>173</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="C102">
         <v>5</v>
       </c>
       <c r="D102" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E102">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F102" t="str">
         <f t="shared" si="5"/>
-        <v>5AB17</v>
+        <v>5AB21</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A103" t="s">
-        <v>234</v>
-      </c>
-      <c r="B103" s="10" t="s">
-        <v>105</v>
+        <v>173</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="C103">
         <v>5</v>
       </c>
       <c r="D103" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E103">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F103" t="str">
         <f t="shared" si="5"/>
-        <v>5AB18</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+        <v>5AB22</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A104" t="s">
-        <v>234</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>106</v>
+        <v>173</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="C104">
         <v>5</v>
       </c>
       <c r="D104" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E104">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F104" t="str">
         <f t="shared" si="5"/>
-        <v>5AB19</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.75">
+        <v>5AB23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A105" t="s">
-        <v>234</v>
-      </c>
-      <c r="B105" s="11" t="s">
-        <v>107</v>
+        <v>173</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="C105">
         <v>5</v>
       </c>
       <c r="D105" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E105">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F105" t="str">
         <f t="shared" si="5"/>
-        <v>5B20</v>
+        <v>5AB24</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A106" t="s">
-        <v>234</v>
-      </c>
-      <c r="B106" s="10" t="s">
-        <v>108</v>
+        <v>173</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="C106">
         <v>5</v>
       </c>
       <c r="D106" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E106">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F106" t="str">
         <f t="shared" si="5"/>
-        <v>5AB21</v>
+        <v>5AB25</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A107" t="s">
-        <v>234</v>
-      </c>
-      <c r="B107" s="10" t="s">
-        <v>109</v>
+        <v>173</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>202</v>
       </c>
       <c r="C107">
         <v>5</v>
       </c>
       <c r="D107" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E107">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F107" t="str">
         <f t="shared" si="5"/>
-        <v>5AB22</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" thickBot="1" x14ac:dyDescent="0.9">
+        <v>5AB26</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A108" t="s">
-        <v>234</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>110</v>
+        <v>173</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>203</v>
       </c>
       <c r="C108">
         <v>5</v>
       </c>
       <c r="D108" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E108">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F108" t="str">
         <f t="shared" si="5"/>
-        <v>5AB23</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+        <v>5B27</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A109" t="s">
-        <v>234</v>
-      </c>
-      <c r="B109" s="10" t="s">
-        <v>111</v>
+        <v>173</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="C109">
         <v>5</v>
       </c>
       <c r="D109" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E109">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F109" t="str">
         <f t="shared" si="5"/>
-        <v>5AB24</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+        <v>5B28</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A110" t="s">
-        <v>234</v>
-      </c>
-      <c r="B110" s="10" t="s">
-        <v>112</v>
+        <v>173</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="C110">
         <v>5</v>
       </c>
       <c r="D110" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E110">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F110" t="str">
         <f t="shared" si="5"/>
-        <v>5AB25</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+        <v>5AB29</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A111" t="s">
-        <v>234</v>
-      </c>
-      <c r="B111" s="10" t="s">
-        <v>113</v>
+        <v>173</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="C111">
         <v>5</v>
       </c>
       <c r="D111" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E111">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F111" t="str">
         <f t="shared" si="5"/>
-        <v>5AB26</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.75">
+        <v>5AB30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A112" t="s">
-        <v>234</v>
-      </c>
-      <c r="B112" s="11" t="s">
-        <v>114</v>
+        <v>173</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="C112">
         <v>5</v>
       </c>
       <c r="D112" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E112">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F112" t="str">
         <f t="shared" si="5"/>
-        <v>5B27</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.75">
+        <v>5AB31</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A113" t="s">
-        <v>234</v>
-      </c>
-      <c r="B113" s="11" t="s">
-        <v>115</v>
+        <v>173</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="C113">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D113" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E113">
-        <f t="shared" si="6"/>
-        <v>28</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="F113" t="str">
         <f t="shared" si="5"/>
-        <v>5B28</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.75">
+        <v>6AB1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A114" t="s">
-        <v>234</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>116</v>
+        <v>173</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="C114">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D114" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E114">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <f>E113+1</f>
+        <v>2</v>
       </c>
       <c r="F114" t="str">
         <f t="shared" si="5"/>
-        <v>5AB29</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.75">
+        <v>6AB2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A115" t="s">
-        <v>234</v>
-      </c>
-      <c r="B115" s="9" t="s">
-        <v>117</v>
+        <v>173</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="C115">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D115" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E115">
-        <f t="shared" si="6"/>
-        <v>30</v>
+        <f t="shared" ref="E115:E130" si="7">E114+1</f>
+        <v>3</v>
       </c>
       <c r="F115" t="str">
         <f t="shared" si="5"/>
-        <v>5AB30</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+        <v>6AB3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A116" t="s">
-        <v>234</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>118</v>
+        <v>173</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="C116">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D116" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E116">
-        <f t="shared" si="6"/>
-        <v>31</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="F116" t="str">
         <f t="shared" si="5"/>
-        <v>5AB31</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+        <v>6AB4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A117" t="s">
-        <v>234</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>0</v>
+        <v>173</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C117">
+        <v>6</v>
+      </c>
+      <c r="D117" t="s">
+        <v>20</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="F117" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>6AB5</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A118" t="s">
-        <v>234</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>119</v>
+        <v>173</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="C118">
         <v>6</v>
       </c>
       <c r="D118" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E118">
-        <f>1</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
       <c r="F118" t="str">
         <f t="shared" si="5"/>
-        <v>6AB1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
+        <v>6AB6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A119" t="s">
-        <v>234</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>120</v>
+        <v>173</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>205</v>
       </c>
       <c r="C119">
         <v>6</v>
       </c>
       <c r="D119" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E119">
-        <f>E118+1</f>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>7</v>
       </c>
       <c r="F119" t="str">
         <f t="shared" si="5"/>
-        <v>6AB2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="16" x14ac:dyDescent="0.75">
+        <v>6AB7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A120" t="s">
-        <v>234</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>121</v>
+        <v>173</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="C120">
         <v>6</v>
       </c>
       <c r="D120" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E120">
-        <f t="shared" ref="E120:E135" si="7">E119+1</f>
-        <v>3</v>
+        <f t="shared" si="7"/>
+        <v>8</v>
       </c>
       <c r="F120" t="str">
         <f t="shared" si="5"/>
-        <v>6AB3</v>
+        <v>6AB8</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A121" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="C121">
         <v>6</v>
       </c>
       <c r="D121" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E121">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F121" t="str">
         <f t="shared" si="5"/>
-        <v>6AB4</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="16" x14ac:dyDescent="0.75">
+        <v>6B9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A122" t="s">
-        <v>234</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>123</v>
+        <v>173</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="C122">
         <v>6</v>
       </c>
       <c r="D122" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E122">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F122" t="str">
         <f t="shared" si="5"/>
-        <v>6AB5</v>
+        <v>6AB10</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A123" t="s">
-        <v>234</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>124</v>
+        <v>173</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="C123">
         <v>6</v>
       </c>
       <c r="D123" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E123">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F123" t="str">
         <f t="shared" si="5"/>
-        <v>6AB6</v>
+        <v>6AB11</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A124" t="s">
-        <v>234</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>125</v>
+        <v>173</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="C124">
         <v>6</v>
       </c>
       <c r="D124" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E124">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F124" t="str">
         <f t="shared" si="5"/>
-        <v>6AB7</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
+        <v>6AB12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A125" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="C125">
         <v>6</v>
       </c>
       <c r="D125" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E125">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F125" t="str">
         <f t="shared" si="5"/>
-        <v>6AB8</v>
+        <v>6AB13</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A126" t="s">
-        <v>234</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>127</v>
+        <v>173</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="C126">
         <v>6</v>
       </c>
       <c r="D126" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E126">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F126" t="str">
-        <f t="shared" si="5"/>
-        <v>6B9</v>
+        <f t="shared" ref="F126:F186" si="8">_xlfn.CONCAT(C126:E126)</f>
+        <v>6AB14</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A127" t="s">
-        <v>234</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>128</v>
+        <v>173</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="C127">
         <v>6</v>
       </c>
       <c r="D127" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E127">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F127" t="str">
-        <f t="shared" si="5"/>
-        <v>6AB10</v>
+        <f t="shared" si="8"/>
+        <v>6AB15</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A128" t="s">
-        <v>234</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>129</v>
+        <v>173</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="C128">
         <v>6</v>
       </c>
       <c r="D128" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E128">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F128" t="str">
-        <f t="shared" si="5"/>
-        <v>6AB11</v>
+        <f t="shared" si="8"/>
+        <v>6AB16</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A129" t="s">
-        <v>234</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>130</v>
+        <v>173</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="C129">
         <v>6</v>
       </c>
       <c r="D129" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E129">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F129" t="str">
-        <f t="shared" si="5"/>
-        <v>6AB12</v>
+        <f t="shared" si="8"/>
+        <v>6B17</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A130" t="s">
-        <v>234</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>131</v>
+        <v>173</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="C130">
         <v>6</v>
       </c>
       <c r="D130" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E130">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F130" t="str">
-        <f t="shared" si="5"/>
-        <v>6AB13</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="16" x14ac:dyDescent="0.75">
+        <f t="shared" si="8"/>
+        <v>6AB18</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A131" t="s">
-        <v>234</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>132</v>
+        <v>173</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="C131">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D131" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E131">
-        <f t="shared" si="7"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F131" t="str">
-        <f t="shared" ref="F131:F194" si="8">_xlfn.CONCAT(C131:E131)</f>
-        <v>6AB14</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
+        <f t="shared" si="8"/>
+        <v>7AB1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A132" t="s">
-        <v>234</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>133</v>
+        <v>173</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="C132">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D132" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E132">
-        <f t="shared" si="7"/>
-        <v>15</v>
+        <f>E131+1</f>
+        <v>2</v>
       </c>
       <c r="F132" t="str">
         <f t="shared" si="8"/>
-        <v>6AB15</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
+        <v>7AB2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A133" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="C133">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D133" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E133">
-        <f t="shared" si="7"/>
-        <v>16</v>
+        <f t="shared" ref="E133:E148" si="9">E132+1</f>
+        <v>3</v>
       </c>
       <c r="F133" t="str">
         <f t="shared" si="8"/>
-        <v>6AB16</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="16" x14ac:dyDescent="0.75">
+        <v>7AB3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A134" t="s">
-        <v>234</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>135</v>
+        <v>173</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="C134">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D134" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E134">
-        <f t="shared" si="7"/>
-        <v>17</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
       <c r="F134" t="str">
         <f t="shared" si="8"/>
-        <v>6B17</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
+        <v>7AB4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A135" t="s">
-        <v>234</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>136</v>
+        <v>173</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="C135">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D135" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E135">
-        <f t="shared" si="7"/>
-        <v>18</v>
+        <f t="shared" si="9"/>
+        <v>5</v>
       </c>
       <c r="F135" t="str">
         <f t="shared" si="8"/>
-        <v>6AB18</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
+        <v>7AB5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A136" t="s">
-        <v>234</v>
-      </c>
-      <c r="B136" s="13" t="s">
-        <v>0</v>
+        <v>173</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C136">
+        <v>7</v>
+      </c>
+      <c r="D136" t="s">
+        <v>20</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="9"/>
+        <v>6</v>
       </c>
       <c r="F136" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
+        <v>7AB6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A137" t="s">
-        <v>234</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>137</v>
+        <v>173</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="C137">
         <v>7</v>
       </c>
       <c r="D137" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>7</v>
       </c>
       <c r="F137" t="str">
         <f t="shared" si="8"/>
-        <v>7AB1</v>
+        <v>7AB7</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A138" t="s">
-        <v>234</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>138</v>
+        <v>173</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="C138">
         <v>7</v>
       </c>
       <c r="D138" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E138">
-        <f>E137+1</f>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>8</v>
       </c>
       <c r="F138" t="str">
         <f t="shared" si="8"/>
-        <v>7AB2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="16" x14ac:dyDescent="0.75">
+        <v>7AB8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A139" t="s">
-        <v>234</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>139</v>
+        <v>173</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="C139">
         <v>7</v>
       </c>
       <c r="D139" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E139">
-        <f t="shared" ref="E139:E154" si="9">E138+1</f>
-        <v>3</v>
+        <f t="shared" si="9"/>
+        <v>9</v>
       </c>
       <c r="F139" t="str">
         <f t="shared" si="8"/>
-        <v>7AB3</v>
+        <v>7AB9</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A140" t="s">
-        <v>234</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>140</v>
+        <v>173</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="C140">
         <v>7</v>
       </c>
       <c r="D140" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E140">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F140" t="str">
         <f t="shared" si="8"/>
-        <v>7AB4</v>
+        <v>7B10</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A141" t="s">
-        <v>234</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>141</v>
+        <v>173</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="C141">
         <v>7</v>
       </c>
       <c r="D141" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E141">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F141" t="str">
         <f t="shared" si="8"/>
-        <v>7AB5</v>
+        <v>7AB11</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A142" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="C142">
         <v>7</v>
       </c>
       <c r="D142" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E142">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F142" t="str">
         <f t="shared" si="8"/>
-        <v>7AB6</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="16" x14ac:dyDescent="0.75">
+        <v>7B12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A143" t="s">
-        <v>234</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>143</v>
+        <v>173</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="C143">
         <v>7</v>
       </c>
       <c r="D143" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E143">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F143" t="str">
         <f t="shared" si="8"/>
-        <v>7AB7</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="16" x14ac:dyDescent="0.75">
+        <v>7AB13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A144" t="s">
-        <v>234</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>144</v>
+        <v>173</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="C144">
         <v>7</v>
       </c>
       <c r="D144" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E144">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F144" t="str">
         <f t="shared" si="8"/>
-        <v>7AB8</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
+        <v>7AB14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A145" t="s">
-        <v>234</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>145</v>
+        <v>173</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="C145">
         <v>7</v>
       </c>
       <c r="D145" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E145">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F145" t="str">
         <f t="shared" si="8"/>
-        <v>7AB9</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
+        <v>7B15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.9">
       <c r="A146" t="s">
-        <v>234</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>146</v>
+        <v>173</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="C146">
         <v>7</v>
       </c>
       <c r="D146" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E146">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F146" t="str">
         <f t="shared" si="8"/>
-        <v>7B10</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="16" x14ac:dyDescent="0.75">
+        <v>7AB16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A147" t="s">
-        <v>234</v>
-      </c>
-      <c r="B147" s="7" t="s">
-        <v>147</v>
+        <v>173</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="C147">
         <v>7</v>
       </c>
       <c r="D147" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E147">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F147" t="str">
         <f t="shared" si="8"/>
-        <v>7AB11</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="16" x14ac:dyDescent="0.75">
+        <v>7AB17</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A148" t="s">
-        <v>234</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>148</v>
+        <v>173</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="C148">
         <v>7</v>
       </c>
       <c r="D148" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E148">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F148" t="str">
         <f t="shared" si="8"/>
-        <v>7B12</v>
+        <v>7AB18</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A149" t="s">
-        <v>234</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>149</v>
+        <v>173</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="C149">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D149" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E149">
-        <f t="shared" si="9"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F149" t="str">
         <f t="shared" si="8"/>
-        <v>7AB13</v>
+        <v>8AB1</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A150" t="s">
-        <v>234</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>150</v>
+        <v>173</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="C150">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D150" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E150">
-        <f t="shared" si="9"/>
-        <v>14</v>
+        <f>1+E149</f>
+        <v>2</v>
       </c>
       <c r="F150" t="str">
         <f t="shared" si="8"/>
-        <v>7AB14</v>
+        <v>8AB2</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A151" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="C151">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D151" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E151">
-        <f t="shared" si="9"/>
-        <v>15</v>
+        <f t="shared" ref="E151:E165" si="10">1+E150</f>
+        <v>3</v>
       </c>
       <c r="F151" t="str">
         <f t="shared" si="8"/>
-        <v>7B15</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.9">
+        <v>8AB3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A152" t="s">
-        <v>234</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>152</v>
+        <v>173</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="C152">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D152" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E152">
-        <f t="shared" si="9"/>
-        <v>16</v>
+        <f t="shared" si="10"/>
+        <v>4</v>
       </c>
       <c r="F152" t="str">
         <f t="shared" si="8"/>
-        <v>7AB16</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
+        <v>8AB4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A153" t="s">
-        <v>234</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>153</v>
+        <v>173</v>
+      </c>
+      <c r="B153" t="s">
+        <v>210</v>
       </c>
       <c r="C153">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D153" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E153">
-        <f t="shared" si="9"/>
-        <v>17</v>
+        <f t="shared" si="10"/>
+        <v>5</v>
       </c>
       <c r="F153" t="str">
         <f t="shared" si="8"/>
-        <v>7AB17</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
+        <v>8A5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A154" t="s">
-        <v>234</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>154</v>
+        <v>173</v>
+      </c>
+      <c r="B154" t="s">
+        <v>211</v>
       </c>
       <c r="C154">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D154" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E154">
-        <f t="shared" si="9"/>
-        <v>18</v>
+        <f t="shared" si="10"/>
+        <v>6</v>
       </c>
       <c r="F154" t="str">
         <f t="shared" si="8"/>
-        <v>7AB18</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
+        <v>8AB6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A155" t="s">
-        <v>234</v>
-      </c>
-      <c r="B155" s="13" t="s">
-        <v>0</v>
+        <v>173</v>
+      </c>
+      <c r="B155" t="s">
+        <v>211</v>
+      </c>
+      <c r="C155">
+        <v>8</v>
+      </c>
+      <c r="D155" t="s">
+        <v>20</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="10"/>
+        <v>7</v>
       </c>
       <c r="F155" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>8AB7</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A156" t="s">
-        <v>234</v>
-      </c>
-      <c r="B156" s="7" t="s">
-        <v>155</v>
+        <v>173</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="C156">
         <v>8</v>
       </c>
       <c r="D156" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E156">
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>8</v>
       </c>
       <c r="F156" t="str">
         <f t="shared" si="8"/>
-        <v>8AB1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
+        <v>8AB8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A157" t="s">
-        <v>234</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>156</v>
+        <v>173</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="C157">
         <v>8</v>
       </c>
       <c r="D157" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E157">
-        <f>1+E156</f>
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>9</v>
       </c>
       <c r="F157" t="str">
         <f t="shared" si="8"/>
-        <v>8AB2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="16" x14ac:dyDescent="0.75">
+        <v>8AB9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A158" t="s">
-        <v>234</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>157</v>
+        <v>173</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="C158">
         <v>8</v>
       </c>
       <c r="D158" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E158">
-        <f t="shared" ref="E158:E172" si="10">1+E157</f>
-        <v>3</v>
+        <f t="shared" si="10"/>
+        <v>10</v>
       </c>
       <c r="F158" t="str">
         <f t="shared" si="8"/>
-        <v>8AB3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
+        <v>8AB10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A159" t="s">
-        <v>234</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>158</v>
+        <v>173</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="C159">
         <v>8</v>
       </c>
       <c r="D159" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E159">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F159" t="str">
         <f t="shared" si="8"/>
-        <v>8AB4</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="16" x14ac:dyDescent="0.75">
+        <v>8A11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A160" t="s">
-        <v>234</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>159</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="B160" s="12"/>
       <c r="C160">
         <v>8</v>
       </c>
       <c r="D160" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E160">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F160" t="str">
         <f t="shared" si="8"/>
-        <v>8A5</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="32.75" thickBot="1" x14ac:dyDescent="0.9">
+        <v>8AB12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A161" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="C161">
         <v>8</v>
       </c>
       <c r="D161" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E161">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F161" t="str">
         <f t="shared" si="8"/>
-        <v>8AB6</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.75">
+        <v>8AB13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A162" t="s">
-        <v>234</v>
-      </c>
-      <c r="B162" s="7" t="s">
-        <v>161</v>
+        <v>173</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="C162">
         <v>8</v>
       </c>
       <c r="D162" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E162">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F162" t="str">
         <f t="shared" si="8"/>
-        <v>8AB7</v>
+        <v>8AB14</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A163" t="s">
-        <v>234</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>162</v>
+        <v>173</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="C163">
         <v>8</v>
       </c>
       <c r="D163" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E163">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F163" t="str">
         <f t="shared" si="8"/>
-        <v>8AB8</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="16" x14ac:dyDescent="0.75">
+        <v>8AB15</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A164" t="s">
-        <v>234</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="C164">
         <v>8</v>
       </c>
       <c r="D164" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E164">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F164" t="str">
         <f t="shared" si="8"/>
-        <v>8AB9</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
+        <v>8AB16</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A165" t="s">
-        <v>234</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>164</v>
+        <v>173</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="C165">
         <v>8</v>
       </c>
       <c r="D165" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E165">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F165" t="str">
         <f t="shared" si="8"/>
-        <v>8AB10</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.75">
+        <v>8A17</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A166" t="s">
-        <v>234</v>
-      </c>
-      <c r="B166" s="5" t="s">
-        <v>165</v>
+        <v>173</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="C166">
         <v>8</v>
       </c>
       <c r="D166" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E166">
-        <f t="shared" si="10"/>
-        <v>11</v>
+        <f>1+E165</f>
+        <v>18</v>
       </c>
       <c r="F166" t="str">
         <f t="shared" si="8"/>
-        <v>8A11</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+        <v>8AB18</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A167" t="s">
-        <v>234</v>
-      </c>
-      <c r="B167" s="6"/>
+        <v>173</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="C167">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E167">
-        <f t="shared" si="10"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F167" t="str">
         <f t="shared" si="8"/>
-        <v>8AB12</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="16" x14ac:dyDescent="0.75">
+        <v>9AB1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A168" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="C168">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E168">
-        <f t="shared" si="10"/>
-        <v>13</v>
+        <f>1+E167</f>
+        <v>2</v>
       </c>
       <c r="F168" t="str">
         <f t="shared" si="8"/>
-        <v>8AB13</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
+        <v>9B2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A169" t="s">
-        <v>234</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="C169">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E169">
-        <f t="shared" si="10"/>
-        <v>14</v>
+        <f t="shared" ref="E169:E187" si="11">1+E168</f>
+        <v>3</v>
       </c>
       <c r="F169" t="str">
         <f t="shared" si="8"/>
-        <v>8AB14</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
+        <v>9AB3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A170" t="s">
-        <v>234</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="C170">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E170">
-        <f t="shared" si="10"/>
-        <v>15</v>
+        <f t="shared" si="11"/>
+        <v>4</v>
       </c>
       <c r="F170" t="str">
         <f t="shared" si="8"/>
-        <v>8AB15</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
+        <v>9B4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A171" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="C171">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E171">
-        <f t="shared" si="10"/>
-        <v>16</v>
+        <f t="shared" si="11"/>
+        <v>5</v>
       </c>
       <c r="F171" t="str">
         <f t="shared" si="8"/>
-        <v>8AB16</v>
+        <v>9AB5</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A172" t="s">
-        <v>234</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="C172">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E172">
-        <f t="shared" si="10"/>
-        <v>17</v>
+        <f t="shared" si="11"/>
+        <v>6</v>
       </c>
       <c r="F172" t="str">
         <f t="shared" si="8"/>
-        <v>8A17</v>
+        <v>9AB6</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A173" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="C173">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E173">
-        <f>1+E172</f>
-        <v>18</v>
+        <f t="shared" si="11"/>
+        <v>7</v>
       </c>
       <c r="F173" t="str">
         <f t="shared" si="8"/>
-        <v>8AB18</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+        <v>9AB7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A174" t="s">
-        <v>234</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>0</v>
+        <v>173</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C174">
+        <v>9</v>
+      </c>
+      <c r="D174" t="s">
+        <v>20</v>
+      </c>
+      <c r="E174">
+        <f t="shared" si="11"/>
+        <v>8</v>
       </c>
       <c r="F174" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="175" spans="1:6" ht="16" x14ac:dyDescent="0.75">
+        <v>9AB8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A175" t="s">
-        <v>234</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="C175">
         <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E175">
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>9</v>
       </c>
       <c r="F175" t="str">
         <f t="shared" si="8"/>
-        <v>9AB1</v>
+        <v>9AB9</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A176" t="s">
-        <v>234</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>173</v>
+        <v>173</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="C176">
         <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E176">
-        <f>1+E175</f>
-        <v>2</v>
+        <f t="shared" si="11"/>
+        <v>10</v>
       </c>
       <c r="F176" t="str">
         <f t="shared" si="8"/>
-        <v>9B2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="16" x14ac:dyDescent="0.75">
+        <v>9AB10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A177" t="s">
-        <v>234</v>
-      </c>
-      <c r="B177" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="C177">
         <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E177">
-        <f t="shared" ref="E177:E195" si="11">1+E176</f>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>11</v>
       </c>
       <c r="F177" t="str">
         <f t="shared" si="8"/>
-        <v>9AB3</v>
+        <v>9AB11</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A178" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="C178">
         <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E178">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F178" t="str">
         <f t="shared" si="8"/>
-        <v>9B4</v>
+        <v>9AB12</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A179" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="C179">
         <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E179">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F179" t="str">
         <f t="shared" si="8"/>
-        <v>9AB5</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" ht="16" x14ac:dyDescent="0.75">
+        <v>9B13</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A180" t="s">
-        <v>234</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="C180">
         <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E180">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F180" t="str">
         <f t="shared" si="8"/>
-        <v>9AB6</v>
+        <v>9AB14</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A181" t="s">
-        <v>234</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="C181">
         <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E181">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F181" t="str">
         <f t="shared" si="8"/>
-        <v>9AB7</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" ht="16" x14ac:dyDescent="0.75">
+        <v>9AB15</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A182" t="s">
-        <v>234</v>
-      </c>
-      <c r="B182" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="C182">
         <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E182">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F182" t="str">
         <f t="shared" si="8"/>
-        <v>9AB8</v>
+        <v>9AB16</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A183" t="s">
-        <v>234</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="C183">
         <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E183">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F183" t="str">
         <f t="shared" si="8"/>
-        <v>9AB9</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
+        <v>9B17</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A184" t="s">
-        <v>234</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="C184">
         <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E184">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F184" t="str">
         <f t="shared" si="8"/>
-        <v>9AB10</v>
+        <v>9AB18</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A185" t="s">
-        <v>234</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="C185">
         <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E185">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F185" t="str">
         <f t="shared" si="8"/>
-        <v>9AB11</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" ht="16" x14ac:dyDescent="0.75">
+        <v>9AB19</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A186" t="s">
-        <v>234</v>
-      </c>
-      <c r="B186" s="7" t="s">
-        <v>183</v>
+        <v>173</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="C186">
         <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E186">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F186" t="str">
         <f t="shared" si="8"/>
-        <v>9AB12</v>
+        <v>9AB20</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A187" t="s">
-        <v>234</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>184</v>
+        <v>173</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="C187">
         <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E187">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F187" t="str">
-        <f t="shared" si="8"/>
-        <v>9B13</v>
+        <f t="shared" ref="F187:F226" si="12">_xlfn.CONCAT(C187:E187)</f>
+        <v>9AB21</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A188" t="s">
-        <v>234</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>185</v>
+        <v>173</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="C188">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D188" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E188">
-        <f t="shared" si="11"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F188" t="str">
-        <f t="shared" si="8"/>
-        <v>9AB14</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
+        <f t="shared" si="12"/>
+        <v>11AB1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A189" t="s">
-        <v>234</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>186</v>
+        <v>173</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="C189">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D189" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E189">
-        <f t="shared" si="11"/>
-        <v>15</v>
+        <f>1+E188</f>
+        <v>2</v>
       </c>
       <c r="F189" t="str">
-        <f t="shared" si="8"/>
-        <v>9AB15</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
+        <f t="shared" si="12"/>
+        <v>11B2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A190" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="C190">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D190" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E190">
-        <f t="shared" si="11"/>
-        <v>16</v>
+        <f t="shared" ref="E190:E208" si="13">1+E189</f>
+        <v>3</v>
       </c>
       <c r="F190" t="str">
-        <f t="shared" si="8"/>
-        <v>9AB16</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
+        <f t="shared" si="12"/>
+        <v>11AB3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A191" t="s">
-        <v>234</v>
-      </c>
-      <c r="B191" s="4" t="s">
-        <v>188</v>
+        <v>173</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="C191">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D191" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E191">
-        <f t="shared" si="11"/>
-        <v>17</v>
+        <f t="shared" si="13"/>
+        <v>4</v>
       </c>
       <c r="F191" t="str">
-        <f t="shared" si="8"/>
-        <v>9B17</v>
+        <f t="shared" si="12"/>
+        <v>11B4</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A192" t="s">
-        <v>234</v>
-      </c>
-      <c r="B192" s="7" t="s">
-        <v>189</v>
+        <v>173</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="C192">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s">
+        <v>20</v>
+      </c>
+      <c r="E192">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="F192" t="str">
+        <f t="shared" si="12"/>
+        <v>11AB5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="16" x14ac:dyDescent="0.75">
+      <c r="A193" t="s">
+        <v>173</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C193">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s">
+        <v>22</v>
+      </c>
+      <c r="E193">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="F193" t="str">
+        <f t="shared" si="12"/>
+        <v>11B6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="16" x14ac:dyDescent="0.75">
+      <c r="A194" t="s">
+        <v>173</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C194">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s">
+        <v>22</v>
+      </c>
+      <c r="E194">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="F194" t="str">
+        <f t="shared" si="12"/>
+        <v>11B7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="16" x14ac:dyDescent="0.75">
+      <c r="A195" t="s">
+        <v>173</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C195">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s">
+        <v>20</v>
+      </c>
+      <c r="E195">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="F195" t="str">
+        <f t="shared" si="12"/>
+        <v>11AB8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="16" x14ac:dyDescent="0.75">
+      <c r="A196" t="s">
+        <v>173</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C196">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s">
+        <v>20</v>
+      </c>
+      <c r="E196">
+        <f t="shared" si="13"/>
         <v>9</v>
-      </c>
-      <c r="D192" t="s">
-        <v>25</v>
-      </c>
-      <c r="E192">
-        <f t="shared" si="11"/>
-        <v>18</v>
-      </c>
-      <c r="F192" t="str">
-        <f t="shared" si="8"/>
-        <v>9AB18</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A193" t="s">
-        <v>234</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C193">
-        <v>9</v>
-      </c>
-      <c r="D193" t="s">
-        <v>25</v>
-      </c>
-      <c r="E193">
-        <f t="shared" si="11"/>
-        <v>19</v>
-      </c>
-      <c r="F193" t="str">
-        <f t="shared" si="8"/>
-        <v>9AB19</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A194" t="s">
-        <v>234</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C194">
-        <v>9</v>
-      </c>
-      <c r="D194" t="s">
-        <v>25</v>
-      </c>
-      <c r="E194">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F194" t="str">
-        <f t="shared" si="8"/>
-        <v>9AB20</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A195" t="s">
-        <v>234</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C195">
-        <v>9</v>
-      </c>
-      <c r="D195" t="s">
-        <v>25</v>
-      </c>
-      <c r="E195">
-        <f t="shared" si="11"/>
-        <v>21</v>
-      </c>
-      <c r="F195" t="str">
-        <f t="shared" ref="F195:F237" si="12">_xlfn.CONCAT(C195:E195)</f>
-        <v>9AB21</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A196" t="s">
-        <v>234</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="F196" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="197" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
+        <v>11AB9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A197" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="C197">
         <v>11</v>
       </c>
       <c r="D197" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>10</v>
       </c>
       <c r="F197" t="str">
         <f t="shared" si="12"/>
-        <v>11AB1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" ht="16" x14ac:dyDescent="0.75">
+        <v>11AB10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A198" t="s">
-        <v>234</v>
-      </c>
-      <c r="B198" s="4" t="s">
-        <v>194</v>
+        <v>173</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="C198">
         <v>11</v>
       </c>
       <c r="D198" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E198">
-        <f>1+E197</f>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>11</v>
       </c>
       <c r="F198" t="str">
         <f t="shared" si="12"/>
-        <v>11B2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" ht="16" x14ac:dyDescent="0.75">
+        <v>11AB11</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A199" t="s">
-        <v>234</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>195</v>
+        <v>173</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="C199">
         <v>11</v>
       </c>
       <c r="D199" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E199">
-        <f t="shared" ref="E199:E217" si="13">1+E198</f>
-        <v>3</v>
+        <f t="shared" si="13"/>
+        <v>12</v>
       </c>
       <c r="F199" t="str">
         <f t="shared" si="12"/>
-        <v>11AB3</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" ht="16" x14ac:dyDescent="0.75">
+        <v>11AB12</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="32" x14ac:dyDescent="0.75">
       <c r="A200" t="s">
-        <v>234</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>196</v>
+        <v>173</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="C200">
         <v>11</v>
       </c>
       <c r="D200" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E200">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F200" t="str">
         <f t="shared" si="12"/>
-        <v>11B4</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" ht="16" x14ac:dyDescent="0.75">
+        <v>11AB13</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="32.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A201" t="s">
-        <v>234</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>197</v>
+        <v>173</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="C201">
         <v>11</v>
       </c>
       <c r="D201" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E201">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F201" t="str">
         <f t="shared" si="12"/>
-        <v>11AB5</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" ht="16" x14ac:dyDescent="0.75">
+        <v>11AB14</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="32" x14ac:dyDescent="0.75">
       <c r="A202" t="s">
-        <v>234</v>
-      </c>
-      <c r="B202" s="14" t="s">
-        <v>198</v>
+        <v>173</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="C202">
         <v>11</v>
       </c>
       <c r="D202" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E202">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F202" t="str">
         <f t="shared" si="12"/>
-        <v>11B6</v>
+        <v>11AB15</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A203" t="s">
-        <v>234</v>
-      </c>
-      <c r="B203" s="4" t="s">
-        <v>199</v>
+        <v>173</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="C203">
         <v>11</v>
       </c>
       <c r="D203" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E203">
         <f t="shared" si="13"/>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F203" t="str">
         <f t="shared" si="12"/>
-        <v>11B7</v>
+        <v>11AB16</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A204" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="C204">
         <v>11</v>
       </c>
       <c r="D204" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E204">
         <f t="shared" si="13"/>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F204" t="str">
         <f t="shared" si="12"/>
-        <v>11AB8</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" ht="16" x14ac:dyDescent="0.75">
+        <v>11B17</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A205" t="s">
-        <v>234</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>201</v>
+        <v>173</v>
+      </c>
+      <c r="B205" t="s">
+        <v>222</v>
       </c>
       <c r="C205">
         <v>11</v>
       </c>
       <c r="D205" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E205">
         <f t="shared" si="13"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F205" t="str">
         <f t="shared" si="12"/>
-        <v>11AB9</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" ht="16" x14ac:dyDescent="0.75">
+        <v>11AB18</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A206" t="s">
-        <v>234</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>202</v>
+        <v>173</v>
+      </c>
+      <c r="B206" t="s">
+        <v>222</v>
       </c>
       <c r="C206">
         <v>11</v>
       </c>
       <c r="D206" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E206">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F206" t="str">
         <f t="shared" si="12"/>
-        <v>11AB10</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
+        <v>11AB19</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="32" x14ac:dyDescent="0.75">
       <c r="A207" t="s">
-        <v>234</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>203</v>
+        <v>173</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="C207">
         <v>11</v>
       </c>
       <c r="D207" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E207">
         <f t="shared" si="13"/>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F207" t="str">
         <f t="shared" si="12"/>
-        <v>11AB11</v>
+        <v>11B20</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A208" t="s">
-        <v>234</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>204</v>
+        <v>173</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="C208">
         <v>11</v>
       </c>
       <c r="D208" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E208">
         <f t="shared" si="13"/>
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F208" t="str">
         <f t="shared" si="12"/>
-        <v>11AB12</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" ht="16" x14ac:dyDescent="0.75">
+        <v>11B21</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A209" t="s">
-        <v>234</v>
-      </c>
-      <c r="B209" s="3" t="s">
-        <v>205</v>
+        <v>173</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="C209">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D209" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E209">
-        <f t="shared" si="13"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F209" t="str">
         <f t="shared" si="12"/>
-        <v>11AB13</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" ht="32.75" thickBot="1" x14ac:dyDescent="0.9">
+        <v>12AB1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A210" t="s">
-        <v>234</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>206</v>
+        <v>173</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="C210">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D210" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E210">
-        <f t="shared" si="13"/>
-        <v>14</v>
+        <f>1+E209</f>
+        <v>2</v>
       </c>
       <c r="F210" t="str">
         <f t="shared" si="12"/>
-        <v>11AB14</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" ht="32" x14ac:dyDescent="0.75">
+        <v>12AB2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A211" t="s">
-        <v>234</v>
-      </c>
-      <c r="B211" s="3" t="s">
-        <v>207</v>
+        <v>173</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="C211">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D211" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E211">
-        <f t="shared" si="13"/>
-        <v>15</v>
+        <f t="shared" ref="E211:E226" si="14">1+E210</f>
+        <v>3</v>
       </c>
       <c r="F211" t="str">
         <f t="shared" si="12"/>
-        <v>11AB15</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" ht="16" x14ac:dyDescent="0.75">
+        <v>12AB3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A212" t="s">
-        <v>234</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>208</v>
+        <v>173</v>
+      </c>
+      <c r="B212" t="s">
+        <v>231</v>
       </c>
       <c r="C212">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D212" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E212">
-        <f t="shared" si="13"/>
-        <v>16</v>
+        <f t="shared" si="14"/>
+        <v>4</v>
       </c>
       <c r="F212" t="str">
         <f t="shared" si="12"/>
-        <v>11AB16</v>
+        <v>12A4</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A213" t="s">
-        <v>234</v>
-      </c>
-      <c r="B213" s="4" t="s">
-        <v>209</v>
+        <v>173</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="C213">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D213" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E213">
-        <f t="shared" si="13"/>
-        <v>17</v>
+        <f t="shared" si="14"/>
+        <v>5</v>
       </c>
       <c r="F213" t="str">
         <f t="shared" si="12"/>
-        <v>11B17</v>
+        <v>12AB5</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A214" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c r="C214">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D214" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E214">
-        <f t="shared" si="13"/>
-        <v>18</v>
+        <f t="shared" si="14"/>
+        <v>6</v>
       </c>
       <c r="F214" t="str">
         <f t="shared" si="12"/>
-        <v>11AB18</v>
+        <v>12AB6</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A215" t="s">
-        <v>234</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>211</v>
+        <v>173</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="C215">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D215" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E215">
-        <f t="shared" si="13"/>
-        <v>19</v>
+        <f t="shared" si="14"/>
+        <v>7</v>
       </c>
       <c r="F215" t="str">
         <f t="shared" si="12"/>
-        <v>11AB19</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" ht="32" x14ac:dyDescent="0.75">
+        <v>12AB7</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A216" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>212</v>
+        <v>163</v>
       </c>
       <c r="C216">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D216" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E216">
-        <f t="shared" si="13"/>
-        <v>20</v>
+        <f t="shared" si="14"/>
+        <v>8</v>
       </c>
       <c r="F216" t="str">
         <f t="shared" si="12"/>
-        <v>11B20</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
+        <v>12AB8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A217" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="C217">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D217" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E217">
-        <f t="shared" si="13"/>
-        <v>21</v>
+        <f t="shared" si="14"/>
+        <v>9</v>
       </c>
       <c r="F217" t="str">
         <f t="shared" si="12"/>
-        <v>11B21</v>
+        <v>12AB9</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A218" t="s">
-        <v>234</v>
-      </c>
-      <c r="B218" s="13" t="s">
-        <v>0</v>
+        <v>173</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C218">
+        <v>12</v>
+      </c>
+      <c r="D218" t="s">
+        <v>20</v>
+      </c>
+      <c r="E218">
+        <f t="shared" si="14"/>
+        <v>10</v>
       </c>
       <c r="F218" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="219" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
+        <v>12AB10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A219" t="s">
-        <v>234</v>
-      </c>
-      <c r="B219" s="7" t="s">
-        <v>214</v>
+        <v>173</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="C219">
         <v>12</v>
       </c>
       <c r="D219" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E219">
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>11</v>
       </c>
       <c r="F219" t="str">
         <f t="shared" si="12"/>
-        <v>12AB1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
+        <v>12AB11</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A220" t="s">
-        <v>234</v>
-      </c>
-      <c r="B220" s="7" t="s">
-        <v>215</v>
+        <v>173</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="C220">
         <v>12</v>
       </c>
       <c r="D220" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E220">
-        <f>1+E219</f>
-        <v>2</v>
+        <f t="shared" si="14"/>
+        <v>12</v>
       </c>
       <c r="F220" t="str">
         <f t="shared" si="12"/>
-        <v>12AB2</v>
+        <v>12AB12</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A221" t="s">
-        <v>234</v>
-      </c>
-      <c r="B221" s="7" t="s">
-        <v>216</v>
+        <v>173</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="C221">
         <v>12</v>
       </c>
       <c r="D221" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E221">
-        <f t="shared" ref="E221:E237" si="14">1+E220</f>
-        <v>3</v>
+        <f t="shared" si="14"/>
+        <v>13</v>
       </c>
       <c r="F221" t="str">
         <f t="shared" si="12"/>
-        <v>12AB3</v>
+        <v>12AB13</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A222" t="s">
-        <v>234</v>
-      </c>
-      <c r="B222" s="15" t="s">
-        <v>217</v>
+        <v>173</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="C222">
         <v>12</v>
       </c>
       <c r="D222" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E222">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F222" t="str">
         <f t="shared" si="12"/>
-        <v>12A4</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" ht="16" x14ac:dyDescent="0.75">
+        <v>12AB14</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A223" t="s">
-        <v>234</v>
-      </c>
-      <c r="B223" s="3" t="s">
-        <v>218</v>
+        <v>173</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="C223">
         <v>12</v>
       </c>
       <c r="D223" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E223">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F223" t="str">
         <f t="shared" si="12"/>
-        <v>12AB5</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
+        <v>12AB15</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="32" x14ac:dyDescent="0.75">
       <c r="A224" t="s">
-        <v>234</v>
-      </c>
-      <c r="B224" s="3" t="s">
-        <v>219</v>
+        <v>173</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>224</v>
       </c>
       <c r="C224">
         <v>12</v>
       </c>
       <c r="D224" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E224">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F224" t="str">
-        <f t="shared" si="12"/>
-        <v>12AB6</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
+        <f t="shared" ref="F224:F226" si="15">_xlfn.CONCAT(C224:E224)</f>
+        <v>12AB16</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A225" t="s">
-        <v>234</v>
-      </c>
-      <c r="B225" s="7" t="s">
-        <v>220</v>
+        <v>173</v>
+      </c>
+      <c r="B225" s="10" t="s">
+        <v>170</v>
       </c>
       <c r="C225">
         <v>12</v>
       </c>
       <c r="D225" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E225">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F225" t="str">
-        <f t="shared" si="12"/>
-        <v>12AB7</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
+        <f t="shared" si="15"/>
+        <v>12A17</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="16" x14ac:dyDescent="0.75">
       <c r="A226" t="s">
-        <v>234</v>
-      </c>
-      <c r="B226" s="7" t="s">
-        <v>221</v>
+        <v>173</v>
+      </c>
+      <c r="B226" s="10" t="s">
+        <v>171</v>
       </c>
       <c r="C226">
         <v>12</v>
       </c>
       <c r="D226" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E226">
         <f t="shared" si="14"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F226" t="str">
-        <f t="shared" si="12"/>
-        <v>12AB8</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" ht="16" x14ac:dyDescent="0.75">
-      <c r="A227" t="s">
-        <v>234</v>
-      </c>
-      <c r="B227" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="C227">
-        <v>12</v>
-      </c>
-      <c r="D227" t="s">
-        <v>25</v>
-      </c>
-      <c r="E227">
-        <f t="shared" si="14"/>
-        <v>9</v>
-      </c>
-      <c r="F227" t="str">
-        <f t="shared" si="12"/>
-        <v>12AB9</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A228" t="s">
-        <v>234</v>
-      </c>
-      <c r="B228" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C228">
-        <v>12</v>
-      </c>
-      <c r="D228" t="s">
-        <v>25</v>
-      </c>
-      <c r="E228">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="F228" t="str">
-        <f t="shared" si="12"/>
-        <v>12AB10</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" ht="16" x14ac:dyDescent="0.75">
-      <c r="A229" t="s">
-        <v>234</v>
-      </c>
-      <c r="B229" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C229">
-        <v>12</v>
-      </c>
-      <c r="D229" t="s">
-        <v>25</v>
-      </c>
-      <c r="E229">
-        <f t="shared" si="14"/>
-        <v>11</v>
-      </c>
-      <c r="F229" t="str">
-        <f t="shared" si="12"/>
-        <v>12AB11</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" ht="16" x14ac:dyDescent="0.75">
-      <c r="A230" t="s">
-        <v>234</v>
-      </c>
-      <c r="B230" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C230">
-        <v>12</v>
-      </c>
-      <c r="D230" t="s">
-        <v>25</v>
-      </c>
-      <c r="E230">
-        <f t="shared" si="14"/>
-        <v>12</v>
-      </c>
-      <c r="F230" t="str">
-        <f t="shared" si="12"/>
-        <v>12AB12</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" ht="16" x14ac:dyDescent="0.75">
-      <c r="A231" t="s">
-        <v>234</v>
-      </c>
-      <c r="B231" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C231">
-        <v>12</v>
-      </c>
-      <c r="D231" t="s">
-        <v>25</v>
-      </c>
-      <c r="E231">
-        <f t="shared" si="14"/>
-        <v>13</v>
-      </c>
-      <c r="F231" t="str">
-        <f t="shared" si="12"/>
-        <v>12AB13</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" ht="16" x14ac:dyDescent="0.75">
-      <c r="A232" t="s">
-        <v>234</v>
-      </c>
-      <c r="B232" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C232">
-        <v>12</v>
-      </c>
-      <c r="D232" t="s">
-        <v>25</v>
-      </c>
-      <c r="E232">
-        <f t="shared" si="14"/>
-        <v>14</v>
-      </c>
-      <c r="F232" t="str">
-        <f t="shared" si="12"/>
-        <v>12AB14</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.9">
-      <c r="A233" t="s">
-        <v>234</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C233">
-        <v>12</v>
-      </c>
-      <c r="D233" t="s">
-        <v>25</v>
-      </c>
-      <c r="E233">
-        <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="F233" t="str">
-        <f t="shared" si="12"/>
-        <v>12AB15</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A234" t="s">
-        <v>234</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C234">
-        <v>12</v>
-      </c>
-      <c r="D234" t="s">
-        <v>25</v>
-      </c>
-      <c r="E234">
-        <f t="shared" si="14"/>
-        <v>16</v>
-      </c>
-      <c r="F234" t="str">
-        <f t="shared" si="12"/>
-        <v>12AB16</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" ht="16" x14ac:dyDescent="0.75">
-      <c r="A235" t="s">
-        <v>234</v>
-      </c>
-      <c r="B235" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C235">
-        <v>12</v>
-      </c>
-      <c r="D235" t="s">
-        <v>25</v>
-      </c>
-      <c r="E235">
-        <f t="shared" si="14"/>
-        <v>17</v>
-      </c>
-      <c r="F235" t="str">
-        <f t="shared" si="12"/>
-        <v>12AB17</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" ht="16" x14ac:dyDescent="0.75">
-      <c r="A236" t="s">
-        <v>234</v>
-      </c>
-      <c r="B236" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="C236">
-        <v>12</v>
-      </c>
-      <c r="D236" t="s">
-        <v>26</v>
-      </c>
-      <c r="E236">
-        <f t="shared" si="14"/>
-        <v>18</v>
-      </c>
-      <c r="F236" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>12A18</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" ht="16" x14ac:dyDescent="0.75">
-      <c r="A237" t="s">
-        <v>234</v>
-      </c>
-      <c r="B237" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="C237">
-        <v>12</v>
-      </c>
-      <c r="D237" t="s">
-        <v>26</v>
-      </c>
-      <c r="E237">
-        <f t="shared" si="14"/>
-        <v>19</v>
-      </c>
-      <c r="F237" t="str">
-        <f t="shared" si="12"/>
-        <v>12A19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="B159:B160"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
